--- a/biology/Zoologie/Congo_(chimpanzé)/Congo_(chimpanzé).xlsx
+++ b/biology/Zoologie/Congo_(chimpanzé)/Congo_(chimpanzé).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Congo_(chimpanz%C3%A9)</t>
+          <t>Congo_(chimpanzé)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Congo (1954-1964) est un chimpanzé ayant appris à peindre sur du papier et des toiles avec Desmond Morris, un zoologiste, ethnologue et peintre surréaliste.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Congo_(chimpanz%C3%A9)</t>
+          <t>Congo_(chimpanzé)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Congo, qui a peint environ 400 tableaux durant sa vie, fut le plus productif à la fin des années 1950. Il est mort en 1964 après avoir contracté la tuberculose.
 Son style fut classé dans le genre « impressionnisme abstrait ». 
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Congo_(chimpanz%C3%A9)</t>
+          <t>Congo_(chimpanzé)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Congo sur le marché de l'art</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>En juin 2005, trois peintures de Congo réalisées en 1954 se sont vendues aux enchères pour plus de 25 000 $US alors que la maison d'art Bonhams ne pensait pas dépasser le dixième du montant payé par le collectionneur Howard Hong[1],[2]. Pour justifier son achat, Hong a affirmé que l'homme ne pouvait prétendre détenir le monopole de l'art abstrait.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>En juin 2005, trois peintures de Congo réalisées en 1954 se sont vendues aux enchères pour plus de 25 000 $US alors que la maison d'art Bonhams ne pensait pas dépasser le dixième du montant payé par le collectionneur Howard Hong,. Pour justifier son achat, Hong a affirmé que l'homme ne pouvait prétendre détenir le monopole de l'art abstrait.
 En juillet 2010, l'humoriste français Jean-François Dérec achète la dernière toile réalisée par Congo pour la somme de 10 000 $US.</t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Congo_(chimpanz%C3%A9)</t>
+          <t>Congo_(chimpanzé)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Congo et le sport</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En juin 2021, une course hommage est célébrée en son nom dans le village de Trigny. Il s'agit d'une course cycliste où chaque participant a la possibilité de changer de vélo huit fois pendant la course. Le gagnant se voit remettre un tee-shirt aux couleurs de Congo et de Matthieu Armstrong (en)[réf. nécessaire].
 </t>
